--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2520896666666667</v>
+        <v>0.05871566666666667</v>
       </c>
       <c r="N2">
-        <v>0.7562690000000001</v>
+        <v>0.176147</v>
       </c>
       <c r="O2">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="P2">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="Q2">
-        <v>0.3699434344908889</v>
+        <v>0.08616567141488887</v>
       </c>
       <c r="R2">
-        <v>3.329490910418</v>
+        <v>0.7754910427339999</v>
       </c>
       <c r="S2">
-        <v>0.006600890108923859</v>
+        <v>0.001579757496688954</v>
       </c>
       <c r="T2">
-        <v>0.006600890108923859</v>
+        <v>0.001579757496688954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>3.938378</v>
       </c>
       <c r="O3">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="P3">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="Q3">
         <v>1.926532865479555</v>
@@ -632,10 +632,10 @@
         <v>17.338795789316</v>
       </c>
       <c r="S3">
-        <v>0.03437507075578045</v>
+        <v>0.03532096584270439</v>
       </c>
       <c r="T3">
-        <v>0.03437507075578045</v>
+        <v>0.03532096584270439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>16.967871</v>
       </c>
       <c r="O4">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="P4">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="Q4">
         <v>8.300158374517999</v>
@@ -694,10 +694,10 @@
         <v>74.70142537066198</v>
       </c>
       <c r="S4">
-        <v>0.1480994882156957</v>
+        <v>0.1521747257410067</v>
       </c>
       <c r="T4">
-        <v>0.1480994882156957</v>
+        <v>0.1521747257410067</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2520896666666667</v>
+        <v>0.05871566666666667</v>
       </c>
       <c r="N5">
-        <v>0.7562690000000001</v>
+        <v>0.176147</v>
       </c>
       <c r="O5">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="P5">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="Q5">
-        <v>1.586648160505556</v>
+        <v>0.3695554274055555</v>
       </c>
       <c r="R5">
-        <v>14.27983344455</v>
+        <v>3.32599884665</v>
       </c>
       <c r="S5">
-        <v>0.02831051769694618</v>
+        <v>0.006775412380586854</v>
       </c>
       <c r="T5">
-        <v>0.02831051769694617</v>
+        <v>0.006775412380586853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>3.938378</v>
       </c>
       <c r="O6">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="P6">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="Q6">
         <v>8.262695164122222</v>
@@ -818,10 +818,10 @@
         <v>74.3642564771</v>
       </c>
       <c r="S6">
-        <v>0.1474310332252988</v>
+        <v>0.1514878769472707</v>
       </c>
       <c r="T6">
-        <v>0.1474310332252987</v>
+        <v>0.1514878769472707</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>16.967871</v>
       </c>
       <c r="O7">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="P7">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="Q7">
         <v>35.59849909205</v>
@@ -880,10 +880,10 @@
         <v>320.3864918284499</v>
       </c>
       <c r="S7">
-        <v>0.6351829999973552</v>
+        <v>0.6526612615917424</v>
       </c>
       <c r="T7">
-        <v>0.6351829999973551</v>
+        <v>0.6526612615917423</v>
       </c>
     </row>
   </sheetData>
